--- a/Livianos/02-10.xlsx
+++ b/Livianos/02-10.xlsx
@@ -1380,7 +1380,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>Mar-24</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>Mar-24</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>Mar-24</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>Mar-24</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>Mar-24</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>Mar-24</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>Mar-24</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>Mar-24</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>Mar-24</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>Mar-24</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>Mar-24</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>Mar-24</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>Mar-24</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>Mar-24</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -5806,7 +5806,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>Mar-24</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>Mar-24</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>Mar-24</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -6755,7 +6755,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Feb-24</t>
+          <t>Mar-24</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
